--- a/Data/age_korrelation.xlsx
+++ b/Data/age_korrelation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\LENA_Project\20240303_LENA_Abstimmungen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB7CE88-F9D6-46DE-BD6C-EB3892167844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9645713-6CE5-43C3-A957-F9DA32F9A9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22755" yWindow="3360" windowWidth="21600" windowHeight="11385" xr2:uid="{42AEB3F2-0167-4A29-93B6-B9A1DC3688F2}"/>
   </bookViews>
@@ -27,12 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
-    <t>Ja-Anteil 13. AHV-Rente</t>
-  </si>
-  <si>
-    <t>Anteil ü65-Jährige</t>
-  </si>
-  <si>
     <t>Kanton_kurz</t>
   </si>
   <si>
@@ -112,6 +106,12 @@
   </si>
   <si>
     <t>ZH</t>
+  </si>
+  <si>
+    <t>vote_result</t>
+  </si>
+  <si>
+    <t>age</t>
   </si>
 </sst>
 </file>
@@ -147,9 +147,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -467,311 +466,311 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>55.38</v>
+      </c>
+      <c r="B2">
+        <v>18.7</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>59.04</v>
+      </c>
+      <c r="B3">
+        <v>20.9</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>55.38</v>
-      </c>
-      <c r="B2" s="1">
-        <v>18.7</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>64.45</v>
+      </c>
+      <c r="B4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>59.04</v>
-      </c>
-      <c r="B3" s="1">
-        <v>20.9</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>51.02</v>
+      </c>
+      <c r="B5">
+        <v>22.900000000000002</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>64.45</v>
-      </c>
-      <c r="B4" s="1">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>46.76</v>
+      </c>
+      <c r="B6">
+        <v>19.8</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>51.02</v>
-      </c>
-      <c r="B5" s="1">
-        <v>22.900000000000002</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50.42</v>
+      </c>
+      <c r="B7">
+        <v>21.9</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>46.76</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>39.46</v>
+      </c>
+      <c r="B8">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>37.24</v>
+      </c>
+      <c r="B9">
+        <v>16.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>51.75</v>
+      </c>
+      <c r="B10">
+        <v>21.099999999999998</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>56.19</v>
+      </c>
+      <c r="B11">
+        <v>22.8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>29.12</v>
+      </c>
+      <c r="B12">
+        <v>22.1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>59.37</v>
+      </c>
+      <c r="B13">
+        <v>18.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>35.47</v>
+      </c>
+      <c r="B14">
         <v>19.8</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>50.42</v>
-      </c>
-      <c r="B7" s="1">
-        <v>21.9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>39.46</v>
-      </c>
-      <c r="B8" s="1">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>37.24</v>
-      </c>
-      <c r="B9" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>51.75</v>
-      </c>
-      <c r="B10" s="1">
-        <v>21.099999999999998</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>56.19</v>
-      </c>
-      <c r="B11" s="1">
-        <v>22.8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>29.12</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>64.7</v>
+      </c>
+      <c r="B15">
         <v>22.1</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>59.37</v>
-      </c>
-      <c r="B13" s="1">
-        <v>18.5</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>35.47</v>
-      </c>
-      <c r="B14" s="1">
-        <v>19.8</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>60.83</v>
+      </c>
+      <c r="B16">
+        <v>20.5</v>
+      </c>
+      <c r="C16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>64.7</v>
-      </c>
-      <c r="B15" s="1">
-        <v>22.1</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>49.98</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>60.83</v>
-      </c>
-      <c r="B16" s="1">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>60.47</v>
+      </c>
+      <c r="B18">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>49.82</v>
+      </c>
+      <c r="B19">
+        <v>20.7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>57.74</v>
+      </c>
+      <c r="B20">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>42.94</v>
+      </c>
+      <c r="B21">
+        <v>23.599999999999998</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>57.68</v>
+      </c>
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>45.02</v>
+      </c>
+      <c r="B23">
+        <v>21.8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>37.94</v>
+      </c>
+      <c r="B24">
+        <v>16.7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="B25">
         <v>20.5</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>49.98</v>
-      </c>
-      <c r="B17" s="1">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>60.47</v>
-      </c>
-      <c r="B18" s="1">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>49.82</v>
-      </c>
-      <c r="B19" s="1">
-        <v>20.7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>57.74</v>
-      </c>
-      <c r="B20" s="1">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>42.94</v>
-      </c>
-      <c r="B21" s="1">
-        <v>23.599999999999998</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>57.68</v>
-      </c>
-      <c r="B22" s="1">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>45.02</v>
-      </c>
-      <c r="B23" s="1">
-        <v>21.8</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>37.94</v>
-      </c>
-      <c r="B24" s="1">
-        <v>16.7</v>
-      </c>
-      <c r="C24" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="B26">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="B25" s="1">
-        <v>20.5</v>
-      </c>
-      <c r="C25" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>55.78</v>
+      </c>
+      <c r="B27">
+        <v>17.299999999999997</v>
+      </c>
+      <c r="C27" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>65.010000000000005</v>
-      </c>
-      <c r="B26" s="1">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>55.78</v>
-      </c>
-      <c r="B27" s="1">
-        <v>17.299999999999997</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
